--- a/person/李哲/李哲用户故事.xlsx
+++ b/person/李哲/李哲用户故事.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="55">
   <si>
     <t>引用编号</t>
   </si>
@@ -47,6 +47,9 @@
     <t>初始估计（h）</t>
   </si>
   <si>
+    <t>优先级</t>
+  </si>
+  <si>
     <t>商业价值</t>
   </si>
   <si>
@@ -102,6 +105,30 @@
   </si>
   <si>
     <t>作为系统管理员，我希望能够对默认运费进行设置，以便于快递公司快递价格发生变化时及时调整</t>
+  </si>
+  <si>
+    <t>修改广告轮播广告高度宽度</t>
+  </si>
+  <si>
+    <t>作为系统管理员，我希望能够对前端页面轮播广告的高宽度进行修改，以便于前台页面发生界面变化时及时更改广告位置</t>
+  </si>
+  <si>
+    <t>删除银行</t>
+  </si>
+  <si>
+    <t>作为系统管理员，我希望能够删除银行，以便于与某银行合作结束时及时删除银行</t>
+  </si>
+  <si>
+    <t>新增快递</t>
+  </si>
+  <si>
+    <t>作为系统管理员，我希望能够添加快递公司，以便于及时添加新达成合作的快递公司</t>
+  </si>
+  <si>
+    <t>查询特定广告位置的广告</t>
+  </si>
+  <si>
+    <t>作为系统管理员，我希望能够通过查询功能查询特定位置的广告，以便于系统管理员更快的查询到想要查询到的广告位置的广告</t>
   </si>
   <si>
     <t>类别</t>
@@ -161,15 +188,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="177" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0;\-0;;@\ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +205,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -198,6 +232,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -206,7 +253,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -216,6 +287,107 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,123 +399,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -351,23 +406,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,61 +446,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,144 +632,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -694,21 +722,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -733,7 +750,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -746,10 +765,8 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -776,7 +793,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -786,32 +805,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,22 +818,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,16 +854,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,16 +872,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,183 +917,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="20" borderId="16" applyNumberFormat="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="13" borderId="16" applyNumberFormat="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="16" applyNumberFormat="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="16" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="30" borderId="16">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="38" borderId="16">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1098,85 +1102,86 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="5" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="5" borderId="9" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="5" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1507,706 +1512,799 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="26.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="9.83333333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
     <col min="7" max="7" width="38.5" customWidth="1"/>
     <col min="8" max="8" width="15.8333333333333" customWidth="1"/>
+    <col min="11" max="11" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="71.5" customHeight="1" spans="1:13">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="71.5" customHeight="1" spans="1:14">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="45" customHeight="1" spans="1:13">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="N1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="16" t="s">
+    </row>
+    <row r="2" ht="45" customHeight="1" spans="1:14">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="18" t="s">
         <v>17</v>
       </c>
+      <c r="H2" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="I2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="26">
+        <v>1</v>
+      </c>
+      <c r="K2" s="27">
+        <v>90</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29">
+        <v>1</v>
+      </c>
+      <c r="N2" s="30"/>
+    </row>
+    <row r="3" ht="45" customHeight="1" spans="1:14">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="26">
-        <v>1</v>
-      </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28">
-        <v>1</v>
-      </c>
-      <c r="M2" s="29"/>
-    </row>
-    <row r="3" ht="45" customHeight="1" spans="1:13">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="I3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="26">
+        <v>1</v>
+      </c>
+      <c r="K3" s="27">
+        <v>56</v>
+      </c>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29">
+        <v>1</v>
+      </c>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" ht="44" customHeight="1" spans="1:14">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="E4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="19" t="s">
+      <c r="J4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="27">
+        <v>92</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32">
+        <v>1</v>
+      </c>
+      <c r="N4" s="33"/>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:14">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="26">
-        <v>1</v>
-      </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28">
-        <v>1</v>
-      </c>
-      <c r="M3" s="29"/>
-    </row>
-    <row r="4" ht="44" customHeight="1" spans="1:13">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="16" t="s">
+      <c r="I5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="26">
+        <v>1</v>
+      </c>
+      <c r="K5" s="27">
+        <v>88</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32">
+        <v>1</v>
+      </c>
+      <c r="N5" s="33"/>
+    </row>
+    <row r="6" ht="43.5" customHeight="1" spans="1:14">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="16" t="s">
+      <c r="E6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="26">
-        <v>1</v>
-      </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31">
-        <v>1</v>
-      </c>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" ht="60" customHeight="1" spans="1:13">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="I6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="26">
+        <v>1</v>
+      </c>
+      <c r="K6" s="27">
+        <v>89</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32">
+        <v>1</v>
+      </c>
+      <c r="N6" s="33"/>
+    </row>
+    <row r="7" ht="32" customHeight="1" spans="1:14">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="E7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="26">
-        <v>1</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31">
-        <v>1</v>
-      </c>
-      <c r="M5" s="32"/>
-    </row>
-    <row r="6" ht="43.5" customHeight="1" spans="1:13">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16" t="s">
+      <c r="I7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="26">
+        <v>1</v>
+      </c>
+      <c r="K7" s="27">
+        <v>78</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32">
+        <v>1</v>
+      </c>
+      <c r="N7" s="33"/>
+    </row>
+    <row r="8" ht="29" customHeight="1" spans="1:14">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="E8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="26">
-        <v>1</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31">
-        <v>1</v>
-      </c>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="7" ht="32" customHeight="1" spans="1:13">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="16" t="s">
+      <c r="I8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="26">
+        <v>1</v>
+      </c>
+      <c r="K8" s="27">
+        <v>85</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29">
+        <v>1</v>
+      </c>
+      <c r="N8" s="30"/>
+    </row>
+    <row r="9" ht="36.5" customHeight="1" spans="1:14">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="16" t="s">
+      <c r="E9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="26">
-        <v>1</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31">
-        <v>1</v>
-      </c>
-      <c r="M7" s="32"/>
-    </row>
-    <row r="8" ht="29" customHeight="1" spans="1:13">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19" t="s">
+      <c r="I9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="26">
+        <v>1</v>
+      </c>
+      <c r="K9" s="27">
+        <v>67</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29">
+        <v>1</v>
+      </c>
+      <c r="N9" s="30"/>
+    </row>
+    <row r="10" ht="47.5" customHeight="1" spans="1:14">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="E10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
-    </row>
-    <row r="9" ht="36.5" customHeight="1" spans="1:13">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="19" t="s">
+      <c r="I10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="26">
+        <v>1</v>
+      </c>
+      <c r="K10" s="27">
+        <v>68</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29">
+        <v>1</v>
+      </c>
+      <c r="N10" s="30"/>
+    </row>
+    <row r="11" ht="34" customHeight="1" spans="1:14">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="E11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="29"/>
-    </row>
-    <row r="10" ht="47.5" customHeight="1" spans="1:13">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" ht="34" customHeight="1" spans="1:13">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
+      <c r="I11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="26">
+        <v>1</v>
+      </c>
+      <c r="K11" s="27">
+        <v>55</v>
+      </c>
       <c r="L11" s="28"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" ht="40.5" customHeight="1" spans="1:13">
-      <c r="A12" s="13">
+      <c r="M11" s="29">
+        <v>1</v>
+      </c>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" ht="40.5" customHeight="1" spans="1:14">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="13">
-        <v>1</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1</v>
-      </c>
-      <c r="D12" s="16"/>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17"/>
       <c r="E12" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="27"/>
       <c r="L12" s="28"/>
       <c r="M12" s="29"/>
-    </row>
-    <row r="13" ht="46.5" customHeight="1" spans="1:13">
-      <c r="A13" s="13">
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" ht="46.5" customHeight="1" spans="1:14">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14">
-        <v>1</v>
-      </c>
-      <c r="D13" s="16"/>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17"/>
       <c r="E13" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
       <c r="H13" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="28"/>
       <c r="M13" s="29"/>
-    </row>
-    <row r="14" ht="34.5" customHeight="1" spans="1:13">
-      <c r="A14" s="13">
+      <c r="N13" s="30"/>
+    </row>
+    <row r="14" ht="34.5" customHeight="1" spans="1:14">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="13">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
-        <v>14</v>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="16" t="s">
+      <c r="H14" s="17" t="s">
         <v>18</v>
       </c>
+      <c r="I14" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="J14" s="26"/>
-      <c r="K14" s="30"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="31"/>
       <c r="M14" s="32"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14">
+      <c r="N14" s="33"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="14">
+        <v>1</v>
+      </c>
+      <c r="B15" s="15">
         <v>2</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <v>2</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="16" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="17" t="s">
         <v>18</v>
       </c>
+      <c r="I15" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="J15" s="26"/>
-      <c r="K15" s="30"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="31"/>
       <c r="M15" s="32"/>
-    </row>
-    <row r="16" ht="30.5" customHeight="1" spans="1:13">
-      <c r="A16" s="13">
+      <c r="N15" s="33"/>
+    </row>
+    <row r="16" ht="30.5" customHeight="1" spans="1:14">
+      <c r="A16" s="14">
         <v>2</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="15">
         <v>2</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <v>2</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="16" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="17" t="s">
         <v>18</v>
       </c>
+      <c r="I16" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="J16" s="26"/>
-      <c r="K16" s="30"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="31"/>
       <c r="M16" s="32"/>
-    </row>
-    <row r="17" ht="46.5" customHeight="1" spans="1:13">
-      <c r="A17" s="13">
+      <c r="N16" s="33"/>
+    </row>
+    <row r="17" ht="46.5" customHeight="1" spans="1:14">
+      <c r="A17" s="14">
         <v>3</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="15">
         <v>2</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
         <v>2</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="28"/>
       <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="13">
+      <c r="N17" s="30"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="14">
         <v>4</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="15">
         <v>2</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
       <c r="H18" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="28"/>
       <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="13">
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="14">
         <v>5</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="15">
         <v>2</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="15">
         <v>2</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
       <c r="H19" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="28"/>
       <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="13">
+      <c r="N19" s="30"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="14">
         <v>6</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="15">
         <v>2</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="15">
         <v>2</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="16" t="s">
-        <v>17</v>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="28"/>
       <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="13">
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="14">
         <v>7</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="15">
         <v>2</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="16" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="17" t="s">
         <v>18</v>
       </c>
+      <c r="I21" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="J21" s="26"/>
-      <c r="K21" s="30"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="31"/>
-      <c r="M21" s="33"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="13">
+      <c r="M21" s="32"/>
+      <c r="N21" s="34"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="14">
         <v>8</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="15">
         <v>2</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="15">
         <v>2</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
       <c r="H22" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="13">
+      <c r="N22" s="30"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="14">
         <v>9</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="15">
         <v>2</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="15">
         <v>2</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="20"/>
       <c r="H23" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="28"/>
       <c r="M23" s="29"/>
+      <c r="N23" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:D7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2230,10 +2328,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2242,21 +2340,21 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2270,10 +2368,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2287,10 +2385,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2304,10 +2402,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2321,10 +2419,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2338,10 +2436,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>

--- a/person/李哲/李哲用户故事.xlsx
+++ b/person/李哲/李哲用户故事.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
   <si>
     <t>引用编号</t>
   </si>
@@ -77,58 +77,58 @@
     <t>Not Done</t>
   </si>
   <si>
+    <t>安装微信支付功能</t>
+  </si>
+  <si>
+    <t>作为一个系统管理员，我希望我能安装微信支付功能，以便于用户更方便进行支付</t>
+  </si>
+  <si>
+    <t>新增地区</t>
+  </si>
+  <si>
+    <t>作为一个系统管理员，我希望我能对地区管理进行新增，以便于新划分地区及时添加到地区管理中</t>
+  </si>
+  <si>
+    <t>新增银行</t>
+  </si>
+  <si>
+    <t>作为系统管理员，我希望能够新增银行，以便于新合作的银行及时添加到后台银行管理</t>
+  </si>
+  <si>
+    <t>修改默认运费</t>
+  </si>
+  <si>
+    <t>作为系统管理员，我希望能够对默认运费进行设置，以便于快递公司快递价格发生变化时及时调整</t>
+  </si>
+  <si>
+    <t>修改广告轮播广告高度宽度</t>
+  </si>
+  <si>
+    <t>作为系统管理员，我希望能够对前端页面轮播广告的高宽度进行修改，以便于前台页面发生界面变化时及时更改广告位置</t>
+  </si>
+  <si>
+    <t>删除银行</t>
+  </si>
+  <si>
+    <t>作为系统管理员，我希望能够删除银行，以便于与某银行合作结束时及时删除银行</t>
+  </si>
+  <si>
+    <t>新增快递</t>
+  </si>
+  <si>
+    <t>作为系统管理员，我希望能够添加快递公司，以便于及时添加新达成合作的快递公司</t>
+  </si>
+  <si>
+    <t>查询特定广告位置的广告</t>
+  </si>
+  <si>
+    <t>作为系统管理员，我希望能够通过查询功能查询特定位置的广告，以便于系统管理员更快的查询到想要查询到的广告位置的广告</t>
+  </si>
+  <si>
     <t>修改广告内容</t>
   </si>
   <si>
     <t>作为一个系统管理员，我希望我能修改广告的标题以及广告图，以便于更换广告，招商</t>
-  </si>
-  <si>
-    <t>安装微信支付功能</t>
-  </si>
-  <si>
-    <t>作为一个系统管理员，我希望我能安装微信支付功能，以便于用户更方便进行支付</t>
-  </si>
-  <si>
-    <t>新增地区</t>
-  </si>
-  <si>
-    <t>作为一个系统管理员，我希望我能对地区管理进行新增，以便于新划分地区及时添加到地区管理中</t>
-  </si>
-  <si>
-    <t>新增银行</t>
-  </si>
-  <si>
-    <t>作为系统管理员，我希望能够新增银行，以便于新合作的银行及时添加到后台银行管理</t>
-  </si>
-  <si>
-    <t>修改默认运费</t>
-  </si>
-  <si>
-    <t>作为系统管理员，我希望能够对默认运费进行设置，以便于快递公司快递价格发生变化时及时调整</t>
-  </si>
-  <si>
-    <t>修改广告轮播广告高度宽度</t>
-  </si>
-  <si>
-    <t>作为系统管理员，我希望能够对前端页面轮播广告的高宽度进行修改，以便于前台页面发生界面变化时及时更改广告位置</t>
-  </si>
-  <si>
-    <t>删除银行</t>
-  </si>
-  <si>
-    <t>作为系统管理员，我希望能够删除银行，以便于与某银行合作结束时及时删除银行</t>
-  </si>
-  <si>
-    <t>新增快递</t>
-  </si>
-  <si>
-    <t>作为系统管理员，我希望能够添加快递公司，以便于及时添加新达成合作的快递公司</t>
-  </si>
-  <si>
-    <t>查询特定广告位置的广告</t>
-  </si>
-  <si>
-    <t>作为系统管理员，我希望能够通过查询功能查询特定位置的广告，以便于系统管理员更快的查询到想要查询到的广告位置的广告</t>
   </si>
   <si>
     <t>类别</t>
@@ -187,16 +187,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="177" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0;\-0;;@\ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,13 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -232,19 +225,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -253,9 +233,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,6 +358,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -274,138 +386,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -440,13 +420,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,175 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,9 +787,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,71 +800,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -917,19 +834,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,149 +918,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="20" borderId="16" applyNumberFormat="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="36" borderId="20" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="16" applyNumberFormat="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="20" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="38" borderId="16">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="38" borderId="20">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1102,86 +1082,86 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="5" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="5" borderId="9" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="5" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="5" borderId="9" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1512,10 +1492,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1612,7 +1592,7 @@
       </c>
       <c r="N2" s="30"/>
     </row>
-    <row r="3" ht="45" customHeight="1" spans="1:14">
+    <row r="3" ht="44" customHeight="1" spans="1:14">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1625,34 +1605,34 @@
       <c r="D3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="26">
         <v>1</v>
       </c>
       <c r="K3" s="27">
-        <v>56</v>
-      </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29">
-        <v>1</v>
-      </c>
-      <c r="N3" s="30"/>
-    </row>
-    <row r="4" ht="44" customHeight="1" spans="1:14">
+        <v>92</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32">
+        <v>1</v>
+      </c>
+      <c r="N3" s="33"/>
+    </row>
+    <row r="4" ht="60" customHeight="1" spans="1:14">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1671,7 +1651,7 @@
       <c r="F4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -1684,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="27">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L4" s="31"/>
       <c r="M4" s="32">
@@ -1692,7 +1672,7 @@
       </c>
       <c r="N4" s="33"/>
     </row>
-    <row r="5" ht="60" customHeight="1" spans="1:14">
+    <row r="5" ht="43.5" customHeight="1" spans="1:14">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1724,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" s="31"/>
       <c r="M5" s="32">
@@ -1732,7 +1712,7 @@
       </c>
       <c r="N5" s="33"/>
     </row>
-    <row r="6" ht="43.5" customHeight="1" spans="1:14">
+    <row r="6" ht="32" customHeight="1" spans="1:14">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1764,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="27">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="L6" s="31"/>
       <c r="M6" s="32">
@@ -1772,7 +1752,7 @@
       </c>
       <c r="N6" s="33"/>
     </row>
-    <row r="7" ht="32" customHeight="1" spans="1:14">
+    <row r="7" ht="29" customHeight="1" spans="1:14">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1785,7 +1765,7 @@
       <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="19" t="s">
@@ -1794,25 +1774,25 @@
       <c r="G7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="26">
         <v>1</v>
       </c>
       <c r="K7" s="27">
-        <v>78</v>
-      </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32">
-        <v>1</v>
-      </c>
-      <c r="N7" s="33"/>
-    </row>
-    <row r="8" ht="29" customHeight="1" spans="1:14">
+        <v>85</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29">
+        <v>1</v>
+      </c>
+      <c r="N7" s="30"/>
+    </row>
+    <row r="8" ht="36.5" customHeight="1" spans="1:14">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1844,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="27">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="L8" s="28"/>
       <c r="M8" s="29">
@@ -1852,7 +1832,7 @@
       </c>
       <c r="N8" s="30"/>
     </row>
-    <row r="9" ht="36.5" customHeight="1" spans="1:14">
+    <row r="9" ht="47.5" customHeight="1" spans="1:14">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1884,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="27">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="29">
@@ -1892,20 +1872,20 @@
       </c>
       <c r="N9" s="30"/>
     </row>
-    <row r="10" ht="47.5" customHeight="1" spans="1:14">
+    <row r="10" ht="34" customHeight="1" spans="1:14">
       <c r="A10" s="14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -1914,17 +1894,17 @@
       <c r="G10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="26">
         <v>1</v>
       </c>
       <c r="K10" s="27">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="L10" s="28"/>
       <c r="M10" s="29">
@@ -1932,20 +1912,20 @@
       </c>
       <c r="N10" s="30"/>
     </row>
-    <row r="11" ht="34" customHeight="1" spans="1:14">
+    <row r="11" ht="40.5" customHeight="1" spans="1:14">
       <c r="A11" s="14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -1954,17 +1934,17 @@
       <c r="G11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="26">
         <v>1</v>
       </c>
       <c r="K11" s="27">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="28"/>
       <c r="M11" s="29">
@@ -1972,9 +1952,9 @@
       </c>
       <c r="N11" s="30"/>
     </row>
-    <row r="12" ht="40.5" customHeight="1" spans="1:14">
+    <row r="12" ht="46.5" customHeight="1" spans="1:14">
       <c r="A12" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="14">
         <v>1</v>
@@ -1983,9 +1963,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="19" t="s">
@@ -1995,14 +1973,13 @@
         <v>19</v>
       </c>
       <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
       <c r="L12" s="28"/>
       <c r="M12" s="29"/>
       <c r="N12" s="30"/>
     </row>
-    <row r="13" ht="46.5" customHeight="1" spans="1:14">
+    <row r="13" ht="34.5" customHeight="1" spans="1:14">
       <c r="A13" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="14">
         <v>1</v>
@@ -2011,39 +1988,34 @@
         <v>1</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="17" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="26"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="30"/>
-    </row>
-    <row r="14" ht="34.5" customHeight="1" spans="1:14">
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="33"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
+        <v>2</v>
       </c>
       <c r="C14" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="17" t="s">
         <v>18</v>
       </c>
@@ -2051,14 +2023,13 @@
         <v>19</v>
       </c>
       <c r="J14" s="26"/>
-      <c r="K14" s="7"/>
       <c r="L14" s="31"/>
       <c r="M14" s="32"/>
       <c r="N14" s="33"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" ht="30.5" customHeight="1" spans="1:14">
       <c r="A15" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="15">
         <v>2</v>
@@ -2079,14 +2050,13 @@
         <v>19</v>
       </c>
       <c r="J15" s="26"/>
-      <c r="K15" s="7"/>
       <c r="L15" s="31"/>
       <c r="M15" s="32"/>
       <c r="N15" s="33"/>
     </row>
-    <row r="16" ht="30.5" customHeight="1" spans="1:14">
+    <row r="16" ht="46.5" customHeight="1" spans="1:14">
       <c r="A16" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="15">
         <v>2</v>
@@ -2095,26 +2065,25 @@
         <v>2</v>
       </c>
       <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="17" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="26"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
-    </row>
-    <row r="17" ht="46.5" customHeight="1" spans="1:14">
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="15">
         <v>2</v>
@@ -2135,14 +2104,13 @@
         <v>19</v>
       </c>
       <c r="J17" s="26"/>
-      <c r="K17" s="7"/>
       <c r="L17" s="28"/>
       <c r="M17" s="29"/>
       <c r="N17" s="30"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="15">
         <v>2</v>
@@ -2163,14 +2131,13 @@
         <v>19</v>
       </c>
       <c r="J18" s="26"/>
-      <c r="K18" s="7"/>
       <c r="L18" s="28"/>
       <c r="M18" s="29"/>
       <c r="N18" s="30"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="15">
         <v>2</v>
@@ -2179,26 +2146,25 @@
         <v>2</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="26"/>
-      <c r="K19" s="7"/>
       <c r="L19" s="28"/>
       <c r="M19" s="29"/>
       <c r="N19" s="30"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="15">
         <v>2</v>
@@ -2215,18 +2181,17 @@
       <c r="H20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="26"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="30"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="34"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="15">
         <v>2</v>
@@ -2235,26 +2200,23 @@
         <v>2</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="17" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="26"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="34"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="15">
         <v>2</v>
@@ -2273,36 +2235,9 @@
         <v>19</v>
       </c>
       <c r="J22" s="26"/>
-      <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="29"/>
       <c r="N22" s="30"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="14">
-        <v>9</v>
-      </c>
-      <c r="B23" s="15">
-        <v>2</v>
-      </c>
-      <c r="C23" s="15">
-        <v>2</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
